--- a/Results/Test_Powietrze_99_Gruzlica_99_kendall.xlsx
+++ b/Results/Test_Powietrze_99_Gruzlica_99_kendall.xlsx
@@ -1,37 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Eksploracja danych\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FF1DAE-683E-4A59-BF20-9632EA1B0073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Administrative_Unit</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>P-Value</t>
+  </si>
+  <si>
+    <t>T-Statistic</t>
+  </si>
+  <si>
+    <t>Degrees of Freedom</t>
+  </si>
+  <si>
+    <t>Significance</t>
+  </si>
+  <si>
+    <t>POLSKA</t>
+  </si>
+  <si>
+    <t>DOLNOŚLĄSKIE</t>
+  </si>
+  <si>
+    <t>KUJAWSKO-POMORSKIE</t>
+  </si>
+  <si>
+    <t>LUBELSKIE</t>
+  </si>
+  <si>
+    <t>LUBUSKIE</t>
+  </si>
+  <si>
+    <t>ŁÓDZKIE</t>
+  </si>
+  <si>
+    <t>MAŁOPOLSKIE</t>
+  </si>
+  <si>
+    <t>MAZOWIECKIE</t>
+  </si>
+  <si>
+    <t>OPOLSKIE</t>
+  </si>
+  <si>
+    <t>PODKARPACKIE</t>
+  </si>
+  <si>
+    <t>PODLASKIE</t>
+  </si>
+  <si>
+    <t>POMORSKIE</t>
+  </si>
+  <si>
+    <t>ŚLĄSKIE</t>
+  </si>
+  <si>
+    <t>ŚWIĘTOKRZYSKIE</t>
+  </si>
+  <si>
+    <t>WARMIŃSKO-MAZURSKIE</t>
+  </si>
+  <si>
+    <t>WIELKOPOLSKIE</t>
+  </si>
+  <si>
+    <t>ZACHODNIOPOMORSKIE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +126,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,419 +450,377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Administrative_Unit</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Correlation</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>P-Value</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>T-Statistic</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Degrees of Freedom</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Significance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>POLSKA</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.144927536231884</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3371306966800511</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6870238106280434</v>
-      </c>
-      <c r="E2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0.14492753623188401</v>
+      </c>
+      <c r="C2">
+        <v>0.33713069668005108</v>
+      </c>
+      <c r="D2">
+        <v>0.68702381062804341</v>
+      </c>
+      <c r="E2">
         <v>22</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DOLNOŚLĄSKIE</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1884057971014493</v>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.18840579710144931</v>
+      </c>
+      <c r="C3">
         <v>0.2082601336997173</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.8998160865127043</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.89981608651270428</v>
+      </c>
+      <c r="E3">
         <v>22</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>KUJAWSKO-POMORSKIE</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.4782608695652174</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0007898981683398482</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-2.554312002070532</v>
-      </c>
-      <c r="E4" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>-0.47826086956521741</v>
+      </c>
+      <c r="C4">
+        <v>7.8989816833984817E-4</v>
+      </c>
+      <c r="D4">
+        <v>-2.5543120020705321</v>
+      </c>
+      <c r="E4">
         <v>22</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>LUBELSKIE</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.17391304347826089</v>
+      </c>
+      <c r="C5">
         <v>0.2466186911684396</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.8283476589298606</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.82834765892986062</v>
+      </c>
+      <c r="E5">
         <v>22</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>LUBUSKIE</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.3115942028985507</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.03393065843664443</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-1.538079224199055</v>
-      </c>
-      <c r="E6" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>-0.31159420289855072</v>
+      </c>
+      <c r="C6">
+        <v>3.3930658436644431E-2</v>
+      </c>
+      <c r="D6">
+        <v>-1.5380792241990551</v>
+      </c>
+      <c r="E6">
         <v>22</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ŁÓDZKIE</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.03623188405797101</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8252716626005498</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1700542559628589</v>
-      </c>
-      <c r="E7" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>3.6231884057971009E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.82527166260054985</v>
+      </c>
+      <c r="D7">
+        <v>0.17005425596285889</v>
+      </c>
+      <c r="E7">
         <v>22</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MAŁOPOLSKIE</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.7318840579710145</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.398433820120627e-08</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5.037706964698669</v>
-      </c>
-      <c r="E8" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.73188405797101452</v>
+      </c>
+      <c r="C8">
+        <v>2.3984338201206271E-8</v>
+      </c>
+      <c r="D8">
+        <v>5.0377069646986694</v>
+      </c>
+      <c r="E8">
         <v>22</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MAZOWIECKIE</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.7028985507246377</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.226545183283969e-07</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-4.635079795644036</v>
-      </c>
-      <c r="E9" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>-0.70289855072463769</v>
+      </c>
+      <c r="C9">
+        <v>1.226545183283969E-7</v>
+      </c>
+      <c r="D9">
+        <v>-4.6350797956440362</v>
+      </c>
+      <c r="E9">
         <v>22</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>OPOLSKIE</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.1633396519441412</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2641903442208661</v>
-      </c>
-      <c r="D10" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>-0.16333965194414121</v>
+      </c>
+      <c r="C10">
+        <v>0.26419034422086612</v>
+      </c>
+      <c r="D10">
         <v>-0.7765601620474667</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>22</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>PODKARPACKIE</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.4492753623188406</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.00172785782672859</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.358746321783315</v>
-      </c>
-      <c r="E11" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.44927536231884058</v>
+      </c>
+      <c r="C11">
+        <v>1.7278578267285901E-3</v>
+      </c>
+      <c r="D11">
+        <v>2.3587463217833151</v>
+      </c>
+      <c r="E11">
         <v>22</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PODLASKIE</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.2898550724637681</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04925402223617705</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-1.42052307478893</v>
-      </c>
-      <c r="E12" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>-0.28985507246376813</v>
+      </c>
+      <c r="C12">
+        <v>4.9254022236177052E-2</v>
+      </c>
+      <c r="D12">
+        <v>-1.4205230747889299</v>
+      </c>
+      <c r="E12">
         <v>22</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>POMORSKIE</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.5117975760916424</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0004678879506090218</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-2.79423402763804</v>
-      </c>
-      <c r="E13" t="n">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>-0.51179757609164245</v>
+      </c>
+      <c r="C13">
+        <v>4.6788795060902178E-4</v>
+      </c>
+      <c r="D13">
+        <v>-2.7942340276380402</v>
+      </c>
+      <c r="E13">
         <v>22</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ŚLĄSKIE</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.09420289855072464</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5392054402251256</v>
-      </c>
-      <c r="D14" t="n">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>9.420289855072464E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.53920544022512562</v>
+      </c>
+      <c r="D14">
         <v>0.4438244387709302</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>22</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ŚWIĘTOKRZYSKIE</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-0.4855072463768116</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0006432240729288161</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-2.604833917723227</v>
-      </c>
-      <c r="E15" t="n">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>-0.48550724637681159</v>
+      </c>
+      <c r="C15">
+        <v>6.4322407292881606E-4</v>
+      </c>
+      <c r="D15">
+        <v>-2.6048339177232269</v>
+      </c>
+      <c r="E15">
         <v>22</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>WARMIŃSKO-MAZURSKIE</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.3375686140178918</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.02102587925839397</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-1.682073294176094</v>
-      </c>
-      <c r="E16" t="n">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>-0.33756861401789179</v>
+      </c>
+      <c r="C16">
+        <v>2.102587925839397E-2</v>
+      </c>
+      <c r="D16">
+        <v>-1.6820732941760941</v>
+      </c>
+      <c r="E16">
         <v>22</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>WIELKOPOLSKIE</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.6932860782517994</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.146705207248196e-06</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4.512237040781963</v>
-      </c>
-      <c r="E17" t="n">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0.69328607825179944</v>
+      </c>
+      <c r="C17">
+        <v>2.146705207248196E-6</v>
+      </c>
+      <c r="D17">
+        <v>4.5122370407819634</v>
+      </c>
+      <c r="E17">
         <v>22</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ZACHODNIOPOMORSKIE</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
         <v>0.3883853946227358</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.007933475173083017</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.97687991053969</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="C18">
+        <v>7.9334751730830173E-3</v>
+      </c>
+      <c r="D18">
+        <v>1.9768799105396899</v>
+      </c>
+      <c r="E18">
         <v>22</v>
       </c>
       <c r="F18" t="b">

--- a/Results/Test_Powietrze_99_Gruzlica_99_kendall.xlsx
+++ b/Results/Test_Powietrze_99_Gruzlica_99_kendall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Eksploracja danych\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FF1DAE-683E-4A59-BF20-9632EA1B0073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CB373C-D0AF-4424-8914-1006BCD1DC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24255" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,11 +144,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -454,7 +455,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="F18" sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,342 +489,342 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0.14492753623188401</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.33713069668005108</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0.68702381062804341</v>
       </c>
-      <c r="E2">
-        <v>22</v>
-      </c>
-      <c r="F2" t="b">
+      <c r="E2" s="2">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0.18840579710144931</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.2082601336997173</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.89981608651270428</v>
       </c>
-      <c r="E3">
-        <v>22</v>
-      </c>
-      <c r="F3" t="b">
+      <c r="E3" s="2">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>-0.47826086956521741</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>7.8989816833984817E-4</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>-2.5543120020705321</v>
       </c>
-      <c r="E4">
-        <v>22</v>
-      </c>
-      <c r="F4" t="b">
+      <c r="E4" s="2">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.17391304347826089</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.2466186911684396</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.82834765892986062</v>
       </c>
-      <c r="E5">
-        <v>22</v>
-      </c>
-      <c r="F5" t="b">
+      <c r="E5" s="2">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>-0.31159420289855072</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>3.3930658436644431E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>-1.5380792241990551</v>
       </c>
-      <c r="E6">
-        <v>22</v>
-      </c>
-      <c r="F6" t="b">
+      <c r="E6" s="2">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>3.6231884057971009E-2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.82527166260054985</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.17005425596285889</v>
       </c>
-      <c r="E7">
-        <v>22</v>
-      </c>
-      <c r="F7" t="b">
+      <c r="E7" s="2">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.73188405797101452</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>2.3984338201206271E-8</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>5.0377069646986694</v>
       </c>
-      <c r="E8">
-        <v>22</v>
-      </c>
-      <c r="F8" t="b">
+      <c r="E8" s="2">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>-0.70289855072463769</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>1.226545183283969E-7</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>-4.6350797956440362</v>
       </c>
-      <c r="E9">
-        <v>22</v>
-      </c>
-      <c r="F9" t="b">
+      <c r="E9" s="2">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>-0.16333965194414121</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.26419034422086612</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>-0.7765601620474667</v>
       </c>
-      <c r="E10">
-        <v>22</v>
-      </c>
-      <c r="F10" t="b">
+      <c r="E10" s="2">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0.44927536231884058</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>1.7278578267285901E-3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>2.3587463217833151</v>
       </c>
-      <c r="E11">
-        <v>22</v>
-      </c>
-      <c r="F11" t="b">
+      <c r="E11" s="2">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>-0.28985507246376813</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>4.9254022236177052E-2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>-1.4205230747889299</v>
       </c>
-      <c r="E12">
-        <v>22</v>
-      </c>
-      <c r="F12" t="b">
+      <c r="E12" s="2">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>-0.51179757609164245</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>4.6788795060902178E-4</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>-2.7942340276380402</v>
       </c>
-      <c r="E13">
-        <v>22</v>
-      </c>
-      <c r="F13" t="b">
+      <c r="E13" s="2">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>9.420289855072464E-2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>0.53920544022512562</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>0.4438244387709302</v>
       </c>
-      <c r="E14">
-        <v>22</v>
-      </c>
-      <c r="F14" t="b">
+      <c r="E14" s="2">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>-0.48550724637681159</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>6.4322407292881606E-4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>-2.6048339177232269</v>
       </c>
-      <c r="E15">
-        <v>22</v>
-      </c>
-      <c r="F15" t="b">
+      <c r="E15" s="2">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>-0.33756861401789179</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>2.102587925839397E-2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>-1.6820732941760941</v>
       </c>
-      <c r="E16">
-        <v>22</v>
-      </c>
-      <c r="F16" t="b">
+      <c r="E16" s="2">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>0.69328607825179944</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>2.146705207248196E-6</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>4.5122370407819634</v>
       </c>
-      <c r="E17">
-        <v>22</v>
-      </c>
-      <c r="F17" t="b">
+      <c r="E17" s="2">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
         <v>0.3883853946227358</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>7.9334751730830173E-3</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>1.9768799105396899</v>
       </c>
-      <c r="E18">
-        <v>22</v>
-      </c>
-      <c r="F18" t="b">
+      <c r="E18" s="2">
+        <v>22</v>
+      </c>
+      <c r="F18" s="2" t="b">
         <v>1</v>
       </c>
     </row>
